--- a/data/trans_bre/P16A05-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,53</t>
+          <t>-2,18; 3,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,28</t>
+          <t>-2,39; 3,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,7</t>
+          <t>-3,57; 1,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,11</t>
+          <t>-2,81; 1,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 180,96</t>
+          <t>-53,96; 156,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,82; 165,5</t>
+          <t>-57,16; 194,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 63,19</t>
+          <t>-66,97; 62,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,37; 47,07</t>
+          <t>-58,61; 57,56</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,81</t>
+          <t>0,43; 4,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,03</t>
+          <t>-1,66; 4,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,96</t>
+          <t>-1,42; 4,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,77</t>
+          <t>0,32; 5,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 698,62</t>
+          <t>-4,67; 671,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 213,5</t>
+          <t>-35,41; 209,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 238,21</t>
+          <t>-39,14; 257,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 286,35</t>
+          <t>5,66; 268,07</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 6,08</t>
+          <t>-0,78; 6,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,48</t>
+          <t>0,91; 9,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,93</t>
+          <t>1,73; 11,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 12,59</t>
+          <t>2,36; 12,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 337,54</t>
+          <t>-28,31; 347,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,31; 273,25</t>
+          <t>9,52; 252,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,95; 560,93</t>
+          <t>35,91; 511,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,43; 775,1</t>
+          <t>28,75; 715,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,86</t>
+          <t>0,65; 4,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,08</t>
+          <t>1,55; 5,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,1</t>
+          <t>1,96; 6,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,43</t>
+          <t>-1,67; 4,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,07; 229,61</t>
+          <t>18,62; 221,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,92; 252,9</t>
+          <t>36,26; 250,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,5; 204,45</t>
+          <t>42,3; 218,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 111,61</t>
+          <t>-31,18; 106,1</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,78</t>
+          <t>-0,37; 5,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,65</t>
+          <t>3,41; 8,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,05</t>
+          <t>4,29; 10,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 7,61</t>
+          <t>0,55; 7,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 241,69</t>
+          <t>-8,4; 219,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,54; 481,18</t>
+          <t>75,27; 463,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,05; 333,49</t>
+          <t>71,19; 311,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 155,81</t>
+          <t>6,76; 151,97</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,85</t>
+          <t>1,7; 5,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,04</t>
+          <t>2,91; 8,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,78</t>
+          <t>3,13; 7,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,24</t>
+          <t>4,47; 9,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,09; 1354,67</t>
+          <t>40,2; 1236,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,99; 2216,45</t>
+          <t>45,49; 2226,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>83,58; 1111,56</t>
+          <t>67,57; 1022,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,8; 783,15</t>
+          <t>78,27; 825,42</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,67</t>
+          <t>1,77; 3,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,05</t>
+          <t>2,72; 4,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,28</t>
+          <t>2,97; 5,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,28</t>
+          <t>2,28; 5,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,52; 166,64</t>
+          <t>57,7; 165,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>70,34; 179,57</t>
+          <t>68,42; 175,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>73,39; 171,77</t>
+          <t>77,05; 174,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,03; 153,63</t>
+          <t>52,02; 156,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A05-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
